--- a/data/trans_bre/P38A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>11.06889965272293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.257232333793913</v>
+        <v>2.25723233379389</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.005282476873650105</v>
@@ -627,7 +627,7 @@
         <v>0.1493968591128858</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02360168647858453</v>
+        <v>0.02360168647858429</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.288827550253409</v>
+        <v>-5.353921833790026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.878198723863544</v>
+        <v>4.507907065053853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6068681199758014</v>
+        <v>-0.5098741478873425</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.05937152433853793</v>
+        <v>-0.05942342300495047</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04924507228414098</v>
+        <v>0.0580659517941869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.006152438568448429</v>
+        <v>-0.005213402976601069</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.98172644431276</v>
+        <v>5.764594912626659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.60240891765</v>
+        <v>17.8635994720091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.330353966697183</v>
+        <v>6.716550880078774</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.06923907508636301</v>
+        <v>0.06801381153221889</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.249646973676018</v>
+        <v>0.2586706758455111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06853773791993353</v>
+        <v>0.0733343351193165</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.902832052553014</v>
+        <v>1.563720316787827</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.00696847164174</v>
+        <v>3.092446960417232</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.550341698770172</v>
+        <v>-1.127230998382626</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02092574386624314</v>
+        <v>0.01790316486769886</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03401616748674863</v>
+        <v>0.03528181384365291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01749832118967406</v>
+        <v>-0.01308308751708616</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.944495468822369</v>
+        <v>9.170056896972394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.86841139922105</v>
+        <v>11.06720994647932</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.25976053034179</v>
+        <v>9.246957151218163</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.116754651194717</v>
+        <v>0.1089012775119751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.132164586530128</v>
+        <v>0.1339197543901948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1114251268177208</v>
+        <v>0.1107750533197243</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>3.021439214560573</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.908825727373644</v>
+        <v>3.908825727373633</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.04437573626011596</v>
@@ -791,7 +791,7 @@
         <v>0.03355393979961306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04198819970046924</v>
+        <v>0.04198819970046912</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4259167687531538</v>
+        <v>-0.2637102160623532</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.062408586465176</v>
+        <v>-1.131530505862777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.467596281973964</v>
+        <v>0.916031913591523</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.004280952319448972</v>
+        <v>-0.002815527691202858</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01163946797366741</v>
+        <v>-0.0121098661663402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004675556512834106</v>
+        <v>0.009647173620171345</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.588225756345466</v>
+        <v>8.898568344962065</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.230418316984857</v>
+        <v>7.134391371626589</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.654405670261134</v>
+        <v>7.594048198084893</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1011473793936498</v>
+        <v>0.1042474625696368</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08281667127428188</v>
+        <v>0.08239256251049108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08530009991767164</v>
+        <v>0.08446853176662776</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.9028999691768513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5.752302581132107</v>
+        <v>5.752302581132119</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1029975592079241</v>
@@ -873,7 +873,7 @@
         <v>0.009794382893439721</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06574218017749441</v>
+        <v>0.06574218017749453</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.071944992413647</v>
+        <v>3.594740197414369</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.870091441132514</v>
+        <v>-3.081606979986098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1862435850398326</v>
+        <v>0.0904394588113263</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0359795190258826</v>
+        <v>0.04259804919566645</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02996428988836792</v>
+        <v>-0.03244615694955494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.001024055579851525</v>
+        <v>0.000835874509001892</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.74680077295957</v>
+        <v>13.87692369885219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.785827225653835</v>
+        <v>4.747626758088595</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.25574787286669</v>
+        <v>13.7039361393747</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1788341683159</v>
+        <v>0.1822670146654868</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05334953611069632</v>
+        <v>0.05204201413630603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1636871324881454</v>
+        <v>0.1655456737062917</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>11.01149879578365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.524215938100809</v>
+        <v>7.524215938100798</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.07579890503284023</v>
@@ -955,7 +955,7 @@
         <v>0.1412056832526649</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09480061089571903</v>
+        <v>0.0948006108957189</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.760071121424033</v>
+        <v>1.276772980532155</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.558765671143323</v>
+        <v>3.518421362577349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3156999823815115</v>
+        <v>0.8113638224828582</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.009232241014962514</v>
+        <v>0.01473261115059735</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04379446118679794</v>
+        <v>0.04310330368353339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002988743362740213</v>
+        <v>0.0106669271841079</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.62166301930939</v>
+        <v>12.75978156497248</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.3734166174901</v>
+        <v>17.94253454908301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.52545039381827</v>
+        <v>14.89936609516596</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1549642971076255</v>
+        <v>0.1565204666458537</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2374749470775698</v>
+        <v>0.2463049999826156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1955774555781511</v>
+        <v>0.2021181216130969</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>6.71909770408331</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3.780996295978178</v>
+        <v>3.780996295978145</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04220556421292215</v>
@@ -1037,7 +1037,7 @@
         <v>0.07889806638861754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04052770236317087</v>
+        <v>0.04052770236317051</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.2243848833867517</v>
+        <v>-0.4589083589898539</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.036677506238205</v>
+        <v>1.915853286070607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07088598595718794</v>
+        <v>-0.06635522861969595</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.00185328581231451</v>
+        <v>-0.004767065281814652</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01277702111310141</v>
+        <v>0.02147151379466522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0007521454326501568</v>
+        <v>-0.000129632391461281</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.04960138733227</v>
+        <v>8.431020268796349</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.29943277110713</v>
+        <v>12.46689604628805</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.424256139259993</v>
+        <v>7.932614016289545</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09113834440542964</v>
+        <v>0.09615790715139592</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1525533677775793</v>
+        <v>0.1548688389797412</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08205458174646856</v>
+        <v>0.08850486825282088</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6192210863706797</v>
+        <v>0.4345228749630435</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.138615134069056</v>
+        <v>2.538589299202243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.672026538990566</v>
+        <v>2.549888245506254</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.006695072428672532</v>
+        <v>0.004729331997019436</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02828087558959304</v>
+        <v>0.03467734252490772</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03149661598922671</v>
+        <v>0.03076113849004152</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.011862252130544</v>
+        <v>6.669102672316726</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.74138291538463</v>
+        <v>11.95991782907911</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.42096967631968</v>
+        <v>10.79062188501475</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.08012475831721834</v>
+        <v>0.07640127229842628</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1674045940356769</v>
+        <v>0.171725374516054</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1275389367003054</v>
+        <v>0.1335853009355123</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>5.719626617861017</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8.77804832527076</v>
+        <v>8.778048325270749</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04425227868585052</v>
@@ -1201,7 +1201,7 @@
         <v>0.0644913167970334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1383048514030077</v>
+        <v>0.1383048514030076</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.5028732671772566</v>
+        <v>-0.5199302321862064</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.00965028897377</v>
+        <v>2.793791530601021</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.590014748635887</v>
+        <v>4.313748800549148</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.006294119799337014</v>
+        <v>-0.006268962653251818</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03297671774124157</v>
+        <v>0.03056371927364177</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05688444197470862</v>
+        <v>0.06477977790504451</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.678995778165365</v>
+        <v>7.416316821642472</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.586614830501595</v>
+        <v>8.491820902837038</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.56075491854524</v>
+        <v>13.84076745974629</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1006242857132646</v>
+        <v>0.09767155788598419</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0990149806447619</v>
+        <v>0.09689028424800349</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2254847714586222</v>
+        <v>0.2291908253699093</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>6.253409758289708</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.800282771485388</v>
+        <v>5.800282771485399</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.05111239220890207</v>
@@ -1283,7 +1283,7 @@
         <v>0.07482222733938539</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0701586743447833</v>
+        <v>0.07015867434478343</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.686041726139248</v>
+        <v>2.696141471286937</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.491163496307815</v>
+        <v>4.740268154860114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.875714247329153</v>
+        <v>3.837317374366255</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.03124885947290334</v>
+        <v>0.03123658741638253</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05331151121123247</v>
+        <v>0.05596629533818654</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04630103102168881</v>
+        <v>0.0457177500979339</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.97725117756047</v>
+        <v>5.811846336029658</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.85121680211075</v>
+        <v>7.901474653758379</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.810623603556357</v>
+        <v>7.85935456672976</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.07070856088710172</v>
+        <v>0.06872917008827256</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09525535534439038</v>
+        <v>0.0953261129513384</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09640586799154664</v>
+        <v>0.0967678009138741</v>
       </c>
     </row>
     <row r="31">
